--- a/6sem/Расписание.xlsx
+++ b/6sem/Расписание.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unic\6 семак\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unic\6sem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t xml:space="preserve">Понедельник </t>
   </si>
@@ -113,6 +113,74 @@
     </r>
   </si>
   <si>
+    <t>Прог. Обеспечение систем</t>
+  </si>
+  <si>
+    <t>Обогащение</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Организация управления предприятием </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4622</t>
+    </r>
+  </si>
+  <si>
+    <t>Моделирование   (гр. Анюты)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Моделирование систем и процессов </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3119</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Горные машины </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5406</t>
+    </r>
+  </si>
+  <si>
+    <t>Робототехника (гр. Анюты)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Робототехника     (гр. Анюты)</t>
+  </si>
+  <si>
+    <t>Военка</t>
+  </si>
+  <si>
+    <t>Выч. Машины (гр. Анюты)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Выч. Машины </t>
     </r>
@@ -120,6 +188,23 @@
       <rPr>
         <b/>
         <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7221</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ТАУ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -128,14 +213,23 @@
     </r>
   </si>
   <si>
-    <t>Прог. Обеспечение систем</t>
-  </si>
-  <si>
-    <t>Обогащение</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Организация управления предприятием </t>
+    <r>
+      <t xml:space="preserve">Горные машины </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5407</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обогащение </t>
     </r>
     <r>
       <rPr>
@@ -146,20 +240,18 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>4622</t>
-    </r>
-  </si>
-  <si>
-    <t>Моделирование   (гр. Анюты)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Моделирование систем и процессов </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+      <t>6307</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Прог. Обеспечение систем </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -168,114 +260,37 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Горные машины </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5406</t>
-    </r>
-  </si>
-  <si>
-    <t>Робототехника (гр. Анюты)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Робототехника     (гр. Анюты)</t>
-  </si>
-  <si>
-    <t>Военка</t>
-  </si>
-  <si>
-    <t>Выч. Машины (гр. Анюты)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Выч. Машины </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>7221</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ТАУ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
+    <t xml:space="preserve">Чётная </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обогащение       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 6203</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выч. Машины        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>4605</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Горные машины </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5407</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обогащение </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6307</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Прог. Обеспечение систем </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3119</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Чётная </t>
   </si>
 </sst>
 </file>
@@ -461,9 +476,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -798,16 +813,16 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -815,18 +830,18 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -835,16 +850,14 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -853,12 +866,12 @@
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -866,11 +879,11 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="11" t="s">
-        <v>18</v>
+      <c r="D6" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -879,14 +892,14 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -908,14 +921,14 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>25</v>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -923,34 +936,36 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -959,12 +974,12 @@
       <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -972,11 +987,11 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="13" t="s">
-        <v>29</v>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -984,9 +999,9 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
